--- a/usecases/MinimumWorkingExample/Data/Mischungen/2018_07_03_Brecht SVB.xlsx
+++ b/usecases/MinimumWorkingExample/Data/Mischungen/2018_07_03_Brecht SVB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G21c\OE73Brand\04-FE\Vorhaben\Vh_7562_Betonabplatzungen\04_Projektkoordination\Sonstige Versuchsplanung\Betonagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afriemel\Documents\GithubMC\usecases\MinimumWorkingExample\Data\Mischungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266879FB-5241-47E7-988A-3DD2AA6FC61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE6DD5B-255B-4FB9-B22A-EE7AA871B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25245" yWindow="30" windowWidth="18705" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sieblinie" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>Kornzusammensetzung von Zuschlaggemischen für Beton</t>
   </si>
@@ -544,6 +548,9 @@
   <si>
     <t>TEKA 500</t>
   </si>
+  <si>
+    <t>Zusatzstoff</t>
+  </si>
 </sst>
 </file>
 
@@ -553,9 +560,9 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€];[Red]\-#,##0.00\ [$€]"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€];[Red]\-#,##0.00\ [$€]"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1508,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1717,7 +1724,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,7 +2006,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2263,6 +2270,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2302,37 +2336,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5029,18 +5036,18 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="274" t="s">
         <v>146</v>
       </c>
@@ -5068,7 +5075,7 @@
       <c r="Q1" s="43"/>
       <c r="R1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="275"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -5094,7 +5101,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -5114,7 +5121,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -5140,7 +5147,7 @@
       <c r="Q4" s="43"/>
       <c r="R4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
@@ -5168,7 +5175,7 @@
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5203,7 @@
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
     </row>
-    <row r="7" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -5216,7 +5223,7 @@
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
     </row>
-    <row r="8" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="183" t="s">
         <v>9</v>
       </c>
@@ -5245,7 +5252,7 @@
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
     </row>
-    <row r="9" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -5265,7 +5272,7 @@
       <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
     </row>
-    <row r="10" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="226" t="s">
         <v>12</v>
       </c>
@@ -5291,7 +5298,7 @@
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
     </row>
-    <row r="11" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="230" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5338,7 @@
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
     </row>
-    <row r="12" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="234" t="s">
         <v>17</v>
       </c>
@@ -5371,7 +5378,7 @@
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
     </row>
-    <row r="13" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="234" t="s">
         <v>19</v>
       </c>
@@ -5411,7 +5418,7 @@
       <c r="Q13" s="43"/>
       <c r="R13" s="43"/>
     </row>
-    <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="234" t="s">
         <v>20</v>
       </c>
@@ -5451,7 +5458,7 @@
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
     </row>
-    <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="234" t="s">
         <v>21</v>
       </c>
@@ -5491,7 +5498,7 @@
       <c r="Q15" s="43"/>
       <c r="R15" s="43"/>
     </row>
-    <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="234" t="s">
         <v>22</v>
       </c>
@@ -5531,7 +5538,7 @@
       <c r="Q16" s="43"/>
       <c r="R16" s="43"/>
     </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="234" t="s">
         <v>129</v>
       </c>
@@ -5571,7 +5578,7 @@
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
     </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="234" t="s">
         <v>23</v>
       </c>
@@ -5611,7 +5618,7 @@
       <c r="Q18" s="43"/>
       <c r="R18" s="43"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="230"/>
       <c r="B19" s="231"/>
       <c r="C19" s="232"/>
@@ -5631,7 +5638,7 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
     </row>
-    <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="143"/>
       <c r="B20" s="143"/>
       <c r="C20" s="143"/>
@@ -5651,7 +5658,7 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
     </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="244" t="s">
         <v>24</v>
       </c>
@@ -5673,7 +5680,7 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
     </row>
-    <row r="22" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="143"/>
       <c r="B22" s="143"/>
       <c r="C22" s="143"/>
@@ -5693,7 +5700,7 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
     </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="143" t="s">
         <v>25</v>
       </c>
@@ -5734,7 +5741,7 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
     </row>
-    <row r="24" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="143"/>
       <c r="B24" s="143"/>
       <c r="C24" s="143"/>
@@ -5754,7 +5761,7 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
     </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +5787,7 @@
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
     </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="247" t="s">
         <v>15</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
         <v>35</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="234" t="s">
         <v>19</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="234" t="s">
         <v>36</v>
       </c>
@@ -6014,7 +6021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="234" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="234" t="s">
         <v>38</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="234" t="s">
         <v>130</v>
       </c>
@@ -6197,7 +6204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="234" t="s">
         <v>39</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="230"/>
       <c r="B34" s="231"/>
       <c r="C34" s="252"/>
@@ -6315,7 +6322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="192" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6374,7 @@
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
     </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="257" t="s">
         <v>40</v>
       </c>
@@ -6416,7 +6423,7 @@
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
     </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6430,16 +6437,16 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O41" s="5"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O45" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="27"/>
       <c r="C59" s="16">
@@ -6468,7 +6475,7 @@
       </c>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>125</v>
       </c>
@@ -6506,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>126</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="21"/>
@@ -6556,7 +6563,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>127</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>128</v>
       </c>
@@ -6652,21 +6659,21 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="10" width="6.7109375" customWidth="1"/>
+    <col min="3" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="274" t="str">
         <f>Sieblinie!A1</f>
         <v>BAM
@@ -6690,7 +6697,7 @@
       </c>
       <c r="K1" s="167"/>
     </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="275"/>
       <c r="B2" s="168"/>
       <c r="C2" s="168"/>
@@ -6708,7 +6715,7 @@
         <v>Haamkens</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -6721,7 +6728,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6746,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
@@ -6757,7 +6764,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>45</v>
       </c>
@@ -6783,7 +6790,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -6796,7 +6803,7 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>103</v>
       </c>
@@ -6814,7 +6821,7 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="173" t="s">
         <v>141</v>
       </c>
@@ -6841,7 +6848,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>105</v>
       </c>
@@ -6864,7 +6871,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -6877,7 +6884,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="183" t="s">
         <v>107</v>
       </c>
@@ -6897,7 +6904,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -6910,7 +6917,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="165" t="s">
         <v>108</v>
       </c>
@@ -6943,7 +6950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
         <v>110</v>
       </c>
@@ -6985,7 +6992,7 @@
         <v>3.8810000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -6998,7 +7005,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="183" t="s">
         <v>111</v>
       </c>
@@ -7013,7 +7020,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -7026,7 +7033,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>48</v>
       </c>
@@ -7049,7 +7056,7 @@
       <c r="J19" s="51"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="61"/>
       <c r="C20" s="66"/>
@@ -7064,7 +7071,7 @@
       <c r="J20" s="193"/>
       <c r="K20" s="194"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="136"/>
       <c r="B21" s="137"/>
       <c r="C21" s="39" t="s">
@@ -7085,11 +7092,11 @@
       <c r="J21" s="39"/>
       <c r="K21" s="40"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="282" t="s">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="283"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="74">
         <v>300</v>
       </c>
@@ -7109,7 +7116,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>62</v>
       </c>
@@ -7127,11 +7134,11 @@
         <v>180</v>
       </c>
       <c r="H23" s="198"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="295"/>
-      <c r="K23" s="296"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="279"/>
+      <c r="J23" s="280"/>
+      <c r="K23" s="281"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>64</v>
       </c>
@@ -7148,11 +7155,11 @@
         <v>65</v>
       </c>
       <c r="H24" s="198"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="295"/>
-      <c r="K24" s="296"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="279"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="281"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>67</v>
       </c>
@@ -7169,15 +7176,17 @@
         <v>20</v>
       </c>
       <c r="H25" s="198"/>
-      <c r="I25" s="294"/>
-      <c r="J25" s="295"/>
-      <c r="K25" s="296"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="279"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="281"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="61"/>
       <c r="C26" s="85">
         <v>301</v>
       </c>
@@ -7191,13 +7200,13 @@
         <v>110.1</v>
       </c>
       <c r="H26" s="198"/>
-      <c r="I26" s="279" t="s">
+      <c r="I26" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="280"/>
-      <c r="K26" s="281"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="289"/>
+      <c r="K26" s="290"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>117</v>
       </c>
@@ -7216,21 +7225,21 @@
         <v>8.1</v>
       </c>
       <c r="H27" s="198"/>
-      <c r="I27" s="286" t="s">
+      <c r="I27" s="295" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="287"/>
-      <c r="K27" s="288"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="284" t="s">
+      <c r="J27" s="296"/>
+      <c r="K27" s="297"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="285"/>
-      <c r="C28" s="289">
+      <c r="B28" s="294"/>
+      <c r="C28" s="282">
         <v>789.6</v>
       </c>
-      <c r="D28" s="290"/>
+      <c r="D28" s="284"/>
       <c r="E28" s="199" t="s">
         <v>65</v>
       </c>
@@ -7240,11 +7249,11 @@
         <v>414.20000000000005</v>
       </c>
       <c r="H28" s="198"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="295"/>
-      <c r="K28" s="296"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="279"/>
+      <c r="J28" s="280"/>
+      <c r="K28" s="281"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>73</v>
       </c>
@@ -7265,11 +7274,11 @@
       <c r="H29" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="294"/>
-      <c r="J29" s="295"/>
-      <c r="K29" s="296"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="279"/>
+      <c r="J29" s="280"/>
+      <c r="K29" s="281"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="205" t="s">
         <v>76</v>
       </c>
@@ -7291,14 +7300,14 @@
         <f>Sieblinie!D27</f>
         <v>0</v>
       </c>
-      <c r="I30" s="276" t="str">
+      <c r="I30" s="285" t="str">
         <f>Sieblinie!L12</f>
         <v>Quarz</v>
       </c>
-      <c r="J30" s="277"/>
-      <c r="K30" s="278"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="286"/>
+      <c r="K30" s="287"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="205" t="s">
         <v>77</v>
       </c>
@@ -7320,14 +7329,14 @@
         <f>Sieblinie!C28</f>
         <v>20</v>
       </c>
-      <c r="I31" s="276" t="str">
+      <c r="I31" s="285" t="str">
         <f>Sieblinie!L13</f>
         <v>Okrilla</v>
       </c>
-      <c r="J31" s="277"/>
-      <c r="K31" s="278"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="286"/>
+      <c r="K31" s="287"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="205" t="s">
         <v>119</v>
       </c>
@@ -7349,15 +7358,15 @@
         <f>Sieblinie!C29</f>
         <v>11.5</v>
       </c>
-      <c r="I32" s="276" t="str">
+      <c r="I32" s="285" t="str">
         <f>Sieblinie!L14</f>
         <v>Okrilla</v>
       </c>
-      <c r="J32" s="277"/>
-      <c r="K32" s="278"/>
+      <c r="J32" s="286"/>
+      <c r="K32" s="287"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="205" t="s">
         <v>81</v>
       </c>
@@ -7379,15 +7388,15 @@
         <f>Sieblinie!C30</f>
         <v>11.5</v>
       </c>
-      <c r="I33" s="276" t="str">
+      <c r="I33" s="285" t="str">
         <f>Sieblinie!L15</f>
         <v>Okrilla</v>
       </c>
-      <c r="J33" s="277"/>
-      <c r="K33" s="278"/>
+      <c r="J33" s="286"/>
+      <c r="K33" s="287"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="205" t="s">
         <v>83</v>
       </c>
@@ -7409,14 +7418,14 @@
         <f>Sieblinie!C31</f>
         <v>7.5</v>
       </c>
-      <c r="I34" s="276" t="str">
+      <c r="I34" s="285" t="str">
         <f>Sieblinie!L16</f>
         <v>Okrilla</v>
       </c>
-      <c r="J34" s="277"/>
-      <c r="K34" s="278"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="286"/>
+      <c r="K34" s="287"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="205" t="s">
         <v>131</v>
       </c>
@@ -7438,14 +7447,14 @@
         <f>Sieblinie!C32</f>
         <v>7.5</v>
       </c>
-      <c r="I35" s="276" t="str">
+      <c r="I35" s="285" t="str">
         <f>Sieblinie!L17</f>
         <v>Okrilla</v>
       </c>
-      <c r="J35" s="277"/>
-      <c r="K35" s="278"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="286"/>
+      <c r="K35" s="287"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="205" t="s">
         <v>120</v>
       </c>
@@ -7467,13 +7476,13 @@
         <f>Sieblinie!C33</f>
         <v>42</v>
       </c>
-      <c r="I36" s="276" t="s">
+      <c r="I36" s="285" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="277"/>
-      <c r="K36" s="278"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="286"/>
+      <c r="K36" s="287"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="205"/>
       <c r="B37" s="133"/>
       <c r="C37" s="209" t="s">
@@ -7490,12 +7499,12 @@
       <c r="H37" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="294"/>
-      <c r="J37" s="295"/>
-      <c r="K37" s="296"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="280"/>
+      <c r="K37" s="281"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74"/>
       <c r="B38" s="67"/>
       <c r="C38" s="212" t="s">
@@ -7512,12 +7521,12 @@
       <c r="H38" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="289"/>
-      <c r="J38" s="297"/>
-      <c r="K38" s="290"/>
+      <c r="I38" s="282"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="284"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>91</v>
       </c>
@@ -7536,11 +7545,11 @@
         <v>1000</v>
       </c>
       <c r="H39" s="80"/>
-      <c r="I39" s="289"/>
-      <c r="J39" s="297"/>
-      <c r="K39" s="290"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="282"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="284"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>121</v>
       </c>
@@ -7557,11 +7566,11 @@
         <v>65</v>
       </c>
       <c r="H40" s="67"/>
-      <c r="I40" s="289"/>
-      <c r="J40" s="297"/>
-      <c r="K40" s="290"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="282"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="284"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="136" t="s">
         <v>122</v>
       </c>
@@ -7578,11 +7587,11 @@
         <v>65</v>
       </c>
       <c r="H41" s="40"/>
-      <c r="I41" s="291"/>
-      <c r="J41" s="292"/>
-      <c r="K41" s="293"/>
-    </row>
-    <row r="42" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="276"/>
+      <c r="J41" s="277"/>
+      <c r="K41" s="278"/>
+    </row>
+    <row r="42" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -7595,7 +7604,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7608,7 +7617,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="261" t="s">
         <v>163</v>
       </c>
@@ -7629,7 +7638,7 @@
       <c r="K44" s="261"/>
       <c r="L44" s="261"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="261" t="s">
         <v>159</v>
       </c>
@@ -7650,7 +7659,7 @@
       <c r="K45" s="261"/>
       <c r="L45" s="261"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="267" t="s">
         <v>164</v>
       </c>
@@ -7671,7 +7680,7 @@
       <c r="K46" s="261"/>
       <c r="L46" s="261"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="267"/>
       <c r="B47" s="264"/>
       <c r="C47" s="264"/>
@@ -7690,15 +7699,22 @@
       <c r="K47" s="264"/>
       <c r="L47" s="264"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="I37:K37"/>
@@ -7715,13 +7731,6 @@
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.62992125984251968" bottom="0" header="0.51181102362204722" footer="0.23622047244094491"/>
@@ -7740,23 +7749,23 @@
       <selection activeCell="A40" sqref="A40:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="1.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="274" t="str">
         <f>Rezeptur!A1</f>
         <v>BAM
@@ -7781,7 +7790,7 @@
       </c>
       <c r="L1" s="299"/>
     </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="275"/>
       <c r="B2" s="37" t="s">
         <v>43</v>
@@ -7802,7 +7811,7 @@
       </c>
       <c r="L2" s="40"/>
     </row>
-    <row r="3" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -7816,7 +7825,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -7837,7 +7846,7 @@
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
@@ -7859,7 +7868,7 @@
       </c>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>45</v>
       </c>
@@ -7880,7 +7889,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -7894,7 +7903,7 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>46</v>
       </c>
@@ -7912,7 +7921,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>48</v>
       </c>
@@ -7934,7 +7943,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="54"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="56"/>
       <c r="C10" s="57" t="s">
@@ -7962,7 +7971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="61"/>
       <c r="C11" s="66"/>
@@ -7982,7 +7991,7 @@
       <c r="K11" s="269"/>
       <c r="L11" s="64"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
         <v>57</v>
       </c>
@@ -8008,7 +8017,7 @@
       <c r="K12" s="71"/>
       <c r="L12" s="64"/>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
         <v>61</v>
       </c>
@@ -8037,7 +8046,7 @@
       <c r="K13" s="63"/>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>62</v>
       </c>
@@ -8064,7 +8073,7 @@
       <c r="K14" s="270"/>
       <c r="L14" s="84"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>64</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="K15" s="87"/>
       <c r="L15" s="61"/>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>67</v>
       </c>
@@ -8112,7 +8121,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="64"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
         <v>69</v>
       </c>
@@ -8144,7 +8153,7 @@
       </c>
       <c r="L17" s="64"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>147</v>
       </c>
@@ -8177,7 +8186,7 @@
       </c>
       <c r="L18" s="97"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>71</v>
       </c>
@@ -8201,7 +8210,7 @@
       <c r="K19" s="87"/>
       <c r="L19" s="61"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
         <v>73</v>
       </c>
@@ -8232,7 +8241,7 @@
       </c>
       <c r="L20" s="109"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
         <v>76</v>
       </c>
@@ -8265,7 +8274,7 @@
       <c r="K21" s="114"/>
       <c r="L21" s="115"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
         <v>77</v>
       </c>
@@ -8298,7 +8307,7 @@
       <c r="K22" s="87"/>
       <c r="L22" s="61"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>79</v>
       </c>
@@ -8334,7 +8343,7 @@
       </c>
       <c r="L23" s="119"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
         <v>81</v>
       </c>
@@ -8367,7 +8376,7 @@
       <c r="K24" s="94"/>
       <c r="L24" s="115"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110" t="s">
         <v>83</v>
       </c>
@@ -8400,7 +8409,7 @@
       <c r="K25" s="122"/>
       <c r="L25" s="61"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
         <v>85</v>
       </c>
@@ -8431,7 +8440,7 @@
       <c r="K26" s="78"/>
       <c r="L26" s="126"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
         <v>86</v>
       </c>
@@ -8462,7 +8471,7 @@
       <c r="K27" s="128"/>
       <c r="L27" s="119"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>87</v>
       </c>
@@ -8486,7 +8495,7 @@
       <c r="K28" s="94"/>
       <c r="L28" s="115"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="132" t="s">
         <v>65</v>
       </c>
@@ -8512,7 +8521,7 @@
       <c r="K29" s="87"/>
       <c r="L29" s="61"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="85" t="s">
         <v>65</v>
       </c>
@@ -8540,7 +8549,7 @@
       </c>
       <c r="L30" s="119"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="136" t="s">
         <v>91</v>
       </c>
@@ -8567,7 +8576,7 @@
       <c r="K31" s="94"/>
       <c r="L31" s="115"/>
     </row>
-    <row r="32" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="143"/>
       <c r="B32" s="143"/>
       <c r="C32" s="144"/>
@@ -8581,7 +8590,7 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>92</v>
       </c>
@@ -8602,7 +8611,7 @@
       <c r="K33" s="147"/>
       <c r="L33" s="148"/>
     </row>
-    <row r="34" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="149" t="s">
         <v>94</v>
       </c>
@@ -8620,7 +8629,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="29"/>
     </row>
-    <row r="35" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="153" t="s">
         <v>96</v>
       </c>
@@ -8638,7 +8647,7 @@
       <c r="K35" s="90"/>
       <c r="L35" s="64"/>
     </row>
-    <row r="36" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="153" t="s">
         <v>97</v>
       </c>
@@ -8658,7 +8667,7 @@
       <c r="K36" s="108"/>
       <c r="L36" s="109"/>
     </row>
-    <row r="37" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="156" t="s">
         <v>99</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="162" t="s">
         <v>101</v>
       </c>
@@ -8718,7 +8727,7 @@
       <c r="K38" s="303"/>
       <c r="L38" s="305"/>
     </row>
-    <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="271"/>
       <c r="B39" s="271"/>
       <c r="C39" s="272"/>
@@ -8732,7 +8741,7 @@
       <c r="K39" s="273"/>
       <c r="L39" s="273"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="261" t="s">
         <v>163</v>
       </c>
@@ -8753,7 +8762,7 @@
       <c r="K40" s="261"/>
       <c r="L40" s="261"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="261" t="s">
         <v>159</v>
       </c>
@@ -8774,7 +8783,7 @@
       <c r="K41" s="261"/>
       <c r="L41" s="261"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="267" t="s">
         <v>164</v>
       </c>
@@ -8795,7 +8804,7 @@
       <c r="K42" s="261"/>
       <c r="L42" s="261"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="267"/>
       <c r="B43" s="264"/>
       <c r="C43" s="264"/>
@@ -8814,7 +8823,7 @@
       <c r="K43" s="264"/>
       <c r="L43" s="264"/>
     </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -8828,7 +8837,7 @@
       <c r="K44" s="43"/>
       <c r="L44" s="43"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
